--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F10</t>
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51476098490174</v>
+        <v>2.163122333333333</v>
       </c>
       <c r="H2">
-        <v>1.51476098490174</v>
+        <v>6.489367</v>
       </c>
       <c r="I2">
-        <v>0.01622004040608762</v>
+        <v>0.01676099918657832</v>
       </c>
       <c r="J2">
-        <v>0.01622004040608762</v>
+        <v>0.01676099918657833</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>39.827414041327</v>
+        <v>0.1663096666666667</v>
       </c>
       <c r="N2">
-        <v>39.827414041327</v>
+        <v>0.498929</v>
       </c>
       <c r="O2">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="P2">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="Q2">
-        <v>60.32901291932988</v>
+        <v>0.3597481542158889</v>
       </c>
       <c r="R2">
-        <v>60.32901291932988</v>
+        <v>3.237733387943</v>
       </c>
       <c r="S2">
-        <v>0.01159697032341509</v>
+        <v>4.880043401853358E-05</v>
       </c>
       <c r="T2">
-        <v>0.01159697032341509</v>
+        <v>4.880043401853358E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51476098490174</v>
+        <v>2.163122333333333</v>
       </c>
       <c r="H3">
-        <v>1.51476098490174</v>
+        <v>6.489367</v>
       </c>
       <c r="I3">
-        <v>0.01622004040608762</v>
+        <v>0.01676099918657832</v>
       </c>
       <c r="J3">
-        <v>0.01622004040608762</v>
+        <v>0.01676099918657833</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6130718893687</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N3">
-        <v>14.6130718893687</v>
+        <v>119.714039</v>
       </c>
       <c r="O3">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="P3">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="Q3">
-        <v>22.13531116758006</v>
+        <v>86.31870379147921</v>
       </c>
       <c r="R3">
-        <v>22.13531116758006</v>
+        <v>776.8683341233128</v>
       </c>
       <c r="S3">
-        <v>0.004255043042942531</v>
+        <v>0.01170927539050978</v>
       </c>
       <c r="T3">
-        <v>0.004255043042942531</v>
+        <v>0.01170927539050978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,619 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51476098490174</v>
+        <v>2.163122333333333</v>
       </c>
       <c r="H4">
-        <v>1.51476098490174</v>
+        <v>6.489367</v>
       </c>
       <c r="I4">
-        <v>0.01622004040608762</v>
+        <v>0.01676099918657832</v>
       </c>
       <c r="J4">
-        <v>0.01622004040608762</v>
+        <v>0.01676099918657833</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.26391332226967</v>
+        <v>0.27049</v>
       </c>
       <c r="N4">
-        <v>1.26391332226967</v>
+        <v>0.8114699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="P4">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="Q4">
-        <v>1.914526588871636</v>
+        <v>0.5851029599433333</v>
       </c>
       <c r="R4">
-        <v>1.914526588871636</v>
+        <v>5.265926639489999</v>
       </c>
       <c r="S4">
-        <v>0.0003680270397299931</v>
+        <v>7.937018732729394E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003680270397299931</v>
+        <v>7.937018732729396E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.99058458782906</v>
+        <v>2.163122333333333</v>
       </c>
       <c r="H5">
-        <v>6.99058458782906</v>
+        <v>6.489367</v>
       </c>
       <c r="I5">
-        <v>0.07485508645056367</v>
+        <v>0.01676099918657832</v>
       </c>
       <c r="J5">
-        <v>0.07485508645056367</v>
+        <v>0.01676099918657833</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>39.827414041327</v>
+        <v>0.4939066666666667</v>
       </c>
       <c r="N5">
-        <v>39.827414041327</v>
+        <v>1.48172</v>
       </c>
       <c r="O5">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="P5">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="Q5">
-        <v>278.4169067703872</v>
+        <v>1.068380541248889</v>
       </c>
       <c r="R5">
-        <v>278.4169067703872</v>
+        <v>9.61542487124</v>
       </c>
       <c r="S5">
-        <v>0.05351973203457931</v>
+        <v>0.0001449275930922868</v>
       </c>
       <c r="T5">
-        <v>0.05351973203457931</v>
+        <v>0.0001449275930922869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.99058458782906</v>
+        <v>2.163122333333333</v>
       </c>
       <c r="H6">
-        <v>6.99058458782906</v>
+        <v>6.489367</v>
       </c>
       <c r="I6">
-        <v>0.07485508645056367</v>
+        <v>0.01676099918657832</v>
       </c>
       <c r="J6">
-        <v>0.07485508645056367</v>
+        <v>0.01676099918657833</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6130718893687</v>
+        <v>14.88291266666667</v>
       </c>
       <c r="N6">
-        <v>14.6130718893687</v>
+        <v>44.648738</v>
       </c>
       <c r="O6">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="P6">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="Q6">
-        <v>102.1539151306589</v>
+        <v>32.19356077431623</v>
       </c>
       <c r="R6">
-        <v>102.1539151306589</v>
+        <v>289.742046968846</v>
       </c>
       <c r="S6">
-        <v>0.01963691870402435</v>
+        <v>0.004367109935040442</v>
       </c>
       <c r="T6">
-        <v>0.01963691870402435</v>
+        <v>0.004367109935040443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.99058458782906</v>
+        <v>2.163122333333333</v>
       </c>
       <c r="H7">
-        <v>6.99058458782906</v>
+        <v>6.489367</v>
       </c>
       <c r="I7">
-        <v>0.07485508645056367</v>
+        <v>0.01676099918657832</v>
       </c>
       <c r="J7">
-        <v>0.07485508645056367</v>
+        <v>0.01676099918657833</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.26391332226967</v>
+        <v>1.402426666666667</v>
       </c>
       <c r="N7">
-        <v>1.26391332226967</v>
+        <v>4.20728</v>
       </c>
       <c r="O7">
-        <v>0.02268964999568479</v>
+        <v>0.02455197581057795</v>
       </c>
       <c r="P7">
-        <v>0.02268964999568479</v>
+        <v>0.02455197581057795</v>
       </c>
       <c r="Q7">
-        <v>8.835492991010179</v>
+        <v>3.033620443528889</v>
       </c>
       <c r="R7">
-        <v>8.835492991010179</v>
+        <v>27.30258399176</v>
       </c>
       <c r="S7">
-        <v>0.001698435711960017</v>
+        <v>0.0004115156465899877</v>
       </c>
       <c r="T7">
-        <v>0.001698435711960017</v>
+        <v>0.0004115156465899877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>10.3411952926121</v>
+        <v>0.056947</v>
       </c>
       <c r="H8">
-        <v>10.3411952926121</v>
+        <v>0.170841</v>
       </c>
       <c r="I8">
-        <v>0.110733381150751</v>
+        <v>0.0004412550348954262</v>
       </c>
       <c r="J8">
-        <v>0.110733381150751</v>
+        <v>0.0004412550348954263</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>39.827414041327</v>
+        <v>0.1663096666666667</v>
       </c>
       <c r="N8">
-        <v>39.827414041327</v>
+        <v>0.498929</v>
       </c>
       <c r="O8">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="P8">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="Q8">
-        <v>411.8630666010839</v>
+        <v>0.009470836587666665</v>
       </c>
       <c r="R8">
-        <v>411.8630666010839</v>
+        <v>0.085237529289</v>
       </c>
       <c r="S8">
-        <v>0.07917191960475654</v>
+        <v>1.284734697260965E-06</v>
       </c>
       <c r="T8">
-        <v>0.07917191960475654</v>
+        <v>1.284734697260965E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>10.3411952926121</v>
+        <v>0.056947</v>
       </c>
       <c r="H9">
-        <v>10.3411952926121</v>
+        <v>0.170841</v>
       </c>
       <c r="I9">
-        <v>0.110733381150751</v>
+        <v>0.0004412550348954262</v>
       </c>
       <c r="J9">
-        <v>0.110733381150751</v>
+        <v>0.0004412550348954263</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6130718893687</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N9">
-        <v>14.6130718893687</v>
+        <v>119.714039</v>
       </c>
       <c r="O9">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="P9">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="Q9">
-        <v>151.1166302329418</v>
+        <v>2.272451792977666</v>
       </c>
       <c r="R9">
-        <v>151.1166302329418</v>
+        <v>20.452066136799</v>
       </c>
       <c r="S9">
-        <v>0.02904895988484514</v>
+        <v>0.0003082618562010873</v>
       </c>
       <c r="T9">
-        <v>0.02904895988484514</v>
+        <v>0.0003082618562010873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>10.3411952926121</v>
+        <v>0.056947</v>
       </c>
       <c r="H10">
-        <v>10.3411952926121</v>
+        <v>0.170841</v>
       </c>
       <c r="I10">
-        <v>0.110733381150751</v>
+        <v>0.0004412550348954262</v>
       </c>
       <c r="J10">
-        <v>0.110733381150751</v>
+        <v>0.0004412550348954263</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.26391332226967</v>
+        <v>0.27049</v>
       </c>
       <c r="N10">
-        <v>1.26391332226967</v>
+        <v>0.8114699999999999</v>
       </c>
       <c r="O10">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="P10">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="Q10">
-        <v>13.07037449852483</v>
+        <v>0.01540359403</v>
       </c>
       <c r="R10">
-        <v>13.07037449852483</v>
+        <v>0.13863234627</v>
       </c>
       <c r="S10">
-        <v>0.0025125016611493</v>
+        <v>2.089523088027264E-06</v>
       </c>
       <c r="T10">
-        <v>0.0025125016611493</v>
+        <v>2.089523088027264E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>74.5416965852388</v>
+        <v>0.056947</v>
       </c>
       <c r="H11">
-        <v>74.5416965852388</v>
+        <v>0.170841</v>
       </c>
       <c r="I11">
-        <v>0.7981914919925978</v>
+        <v>0.0004412550348954262</v>
       </c>
       <c r="J11">
-        <v>0.7981914919925978</v>
+        <v>0.0004412550348954263</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>39.827414041327</v>
+        <v>0.4939066666666667</v>
       </c>
       <c r="N11">
-        <v>39.827414041327</v>
+        <v>1.48172</v>
       </c>
       <c r="O11">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="P11">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="Q11">
-        <v>2968.803013243277</v>
+        <v>0.02812650294666667</v>
       </c>
       <c r="R11">
-        <v>2968.803013243277</v>
+        <v>0.25313852652</v>
       </c>
       <c r="S11">
-        <v>0.5706892716226795</v>
+        <v>3.815406792600784E-06</v>
       </c>
       <c r="T11">
-        <v>0.5706892716226795</v>
+        <v>3.815406792600785E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>74.5416965852388</v>
+        <v>0.056947</v>
       </c>
       <c r="H12">
-        <v>74.5416965852388</v>
+        <v>0.170841</v>
       </c>
       <c r="I12">
-        <v>0.7981914919925978</v>
+        <v>0.0004412550348954262</v>
       </c>
       <c r="J12">
-        <v>0.7981914919925978</v>
+        <v>0.0004412550348954263</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.6130718893687</v>
+        <v>14.88291266666667</v>
       </c>
       <c r="N12">
-        <v>14.6130718893687</v>
+        <v>44.648738</v>
       </c>
       <c r="O12">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="P12">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="Q12">
-        <v>1089.283170955604</v>
+        <v>0.8475372276286667</v>
       </c>
       <c r="R12">
-        <v>1089.283170955604</v>
+        <v>7.627835048658</v>
       </c>
       <c r="S12">
-        <v>0.2093915347870728</v>
+        <v>0.0001149698311734017</v>
       </c>
       <c r="T12">
-        <v>0.2093915347870728</v>
+        <v>0.0001149698311734017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.056947</v>
+      </c>
+      <c r="H13">
+        <v>0.170841</v>
+      </c>
+      <c r="I13">
+        <v>0.0004412550348954262</v>
+      </c>
+      <c r="J13">
+        <v>0.0004412550348954263</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.20728</v>
+      </c>
+      <c r="O13">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P13">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q13">
+        <v>0.07986399138666667</v>
+      </c>
+      <c r="R13">
+        <v>0.71877592248</v>
+      </c>
+      <c r="S13">
+        <v>1.083368294304823E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.083368294304823E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.87595</v>
+      </c>
+      <c r="H14">
+        <v>116.62785</v>
+      </c>
+      <c r="I14">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="J14">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1663096666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.498929</v>
+      </c>
+      <c r="O14">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="P14">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="Q14">
+        <v>6.465446285849999</v>
+      </c>
+      <c r="R14">
+        <v>58.18901657265</v>
+      </c>
+      <c r="S14">
+        <v>0.0008770485162340843</v>
+      </c>
+      <c r="T14">
+        <v>0.0008770485162340845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.87595</v>
+      </c>
+      <c r="H15">
+        <v>116.62785</v>
+      </c>
+      <c r="I15">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="J15">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>39.90467966666666</v>
+      </c>
+      <c r="N15">
+        <v>119.714039</v>
+      </c>
+      <c r="O15">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="P15">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="Q15">
+        <v>1551.33233148735</v>
+      </c>
+      <c r="R15">
+        <v>13961.99098338615</v>
+      </c>
+      <c r="S15">
+        <v>0.2104408047584712</v>
+      </c>
+      <c r="T15">
+        <v>0.2104408047584713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.87595</v>
+      </c>
+      <c r="H16">
+        <v>116.62785</v>
+      </c>
+      <c r="I16">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="J16">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.27049</v>
+      </c>
+      <c r="N16">
+        <v>0.8114699999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="P16">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="Q16">
+        <v>10.5155557155</v>
+      </c>
+      <c r="R16">
+        <v>94.64000143949998</v>
+      </c>
+      <c r="S16">
+        <v>0.001426452580364084</v>
+      </c>
+      <c r="T16">
+        <v>0.001426452580364085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.87595</v>
+      </c>
+      <c r="H17">
+        <v>116.62785</v>
+      </c>
+      <c r="I17">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="J17">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.4939066666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.48172</v>
+      </c>
+      <c r="O17">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="P17">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="Q17">
+        <v>19.201090878</v>
+      </c>
+      <c r="R17">
+        <v>172.809817902</v>
+      </c>
+      <c r="S17">
+        <v>0.002604659836318129</v>
+      </c>
+      <c r="T17">
+        <v>0.002604659836318129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>38.87595</v>
+      </c>
+      <c r="H18">
+        <v>116.62785</v>
+      </c>
+      <c r="I18">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="J18">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.88291266666667</v>
+      </c>
+      <c r="N18">
+        <v>44.648738</v>
+      </c>
+      <c r="O18">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="P18">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="Q18">
+        <v>578.5873686837</v>
+      </c>
+      <c r="R18">
+        <v>5207.2863181533</v>
+      </c>
+      <c r="S18">
+        <v>0.07848633656216492</v>
+      </c>
+      <c r="T18">
+        <v>0.07848633656216493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>74.5416965852388</v>
-      </c>
-      <c r="H13">
-        <v>74.5416965852388</v>
-      </c>
-      <c r="I13">
-        <v>0.7981914919925978</v>
-      </c>
-      <c r="J13">
-        <v>0.7981914919925978</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.26391332226967</v>
-      </c>
-      <c r="N13">
-        <v>1.26391332226967</v>
-      </c>
-      <c r="O13">
-        <v>0.02268964999568479</v>
-      </c>
-      <c r="P13">
-        <v>0.02268964999568479</v>
-      </c>
-      <c r="Q13">
-        <v>94.21424337866688</v>
-      </c>
-      <c r="R13">
-        <v>94.21424337866688</v>
-      </c>
-      <c r="S13">
-        <v>0.01811068558284549</v>
-      </c>
-      <c r="T13">
-        <v>0.01811068558284549</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>38.87595</v>
+      </c>
+      <c r="H19">
+        <v>116.62785</v>
+      </c>
+      <c r="I19">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="J19">
+        <v>0.3012311214610576</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.20728</v>
+      </c>
+      <c r="O19">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P19">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q19">
+        <v>54.520668972</v>
+      </c>
+      <c r="R19">
+        <v>490.686020748</v>
+      </c>
+      <c r="S19">
+        <v>0.007395819207505152</v>
+      </c>
+      <c r="T19">
+        <v>0.007395819207505154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.89326566666667</v>
+      </c>
+      <c r="H20">
+        <v>32.679797</v>
+      </c>
+      <c r="I20">
+        <v>0.08440669959559149</v>
+      </c>
+      <c r="J20">
+        <v>0.08440669959559151</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1663096666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.498929</v>
+      </c>
+      <c r="O20">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="P20">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="Q20">
+        <v>1.811655381934778</v>
+      </c>
+      <c r="R20">
+        <v>16.304898437413</v>
+      </c>
+      <c r="S20">
+        <v>0.0002457540584832961</v>
+      </c>
+      <c r="T20">
+        <v>0.0002457540584832961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.89326566666667</v>
+      </c>
+      <c r="H21">
+        <v>32.679797</v>
+      </c>
+      <c r="I21">
+        <v>0.08440669959559149</v>
+      </c>
+      <c r="J21">
+        <v>0.08440669959559151</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>39.90467966666666</v>
+      </c>
+      <c r="N21">
+        <v>119.714039</v>
+      </c>
+      <c r="O21">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="P21">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="Q21">
+        <v>434.6922769522313</v>
+      </c>
+      <c r="R21">
+        <v>3912.230492570083</v>
+      </c>
+      <c r="S21">
+        <v>0.05896672861605075</v>
+      </c>
+      <c r="T21">
+        <v>0.05896672861605076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.89326566666667</v>
+      </c>
+      <c r="H22">
+        <v>32.679797</v>
+      </c>
+      <c r="I22">
+        <v>0.08440669959559149</v>
+      </c>
+      <c r="J22">
+        <v>0.08440669959559151</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.27049</v>
+      </c>
+      <c r="N22">
+        <v>0.8114699999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="P22">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="Q22">
+        <v>2.946519430176666</v>
+      </c>
+      <c r="R22">
+        <v>26.51867487159</v>
+      </c>
+      <c r="S22">
+        <v>0.0003997002496095441</v>
+      </c>
+      <c r="T22">
+        <v>0.0003997002496095442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>10.89326566666667</v>
+      </c>
+      <c r="H23">
+        <v>32.679797</v>
+      </c>
+      <c r="I23">
+        <v>0.08440669959559149</v>
+      </c>
+      <c r="J23">
+        <v>0.08440669959559151</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.4939066666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.48172</v>
+      </c>
+      <c r="O23">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="P23">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="Q23">
+        <v>5.380256534537778</v>
+      </c>
+      <c r="R23">
+        <v>48.42230881084001</v>
+      </c>
+      <c r="S23">
+        <v>0.0007298407259066311</v>
+      </c>
+      <c r="T23">
+        <v>0.0007298407259066312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10.89326566666667</v>
+      </c>
+      <c r="H24">
+        <v>32.679797</v>
+      </c>
+      <c r="I24">
+        <v>0.08440669959559149</v>
+      </c>
+      <c r="J24">
+        <v>0.08440669959559151</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.88291266666667</v>
+      </c>
+      <c r="N24">
+        <v>44.648738</v>
+      </c>
+      <c r="O24">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="P24">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="Q24">
+        <v>162.1235215717984</v>
+      </c>
+      <c r="R24">
+        <v>1459.111694146186</v>
+      </c>
+      <c r="S24">
+        <v>0.0219923246988196</v>
+      </c>
+      <c r="T24">
+        <v>0.0219923246988196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10.89326566666667</v>
+      </c>
+      <c r="H25">
+        <v>32.679797</v>
+      </c>
+      <c r="I25">
+        <v>0.08440669959559149</v>
+      </c>
+      <c r="J25">
+        <v>0.08440669959559151</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.20728</v>
+      </c>
+      <c r="O25">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P25">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q25">
+        <v>15.27700625801778</v>
+      </c>
+      <c r="R25">
+        <v>137.49305632216</v>
+      </c>
+      <c r="S25">
+        <v>0.002072351246721682</v>
+      </c>
+      <c r="T25">
+        <v>0.002072351246721682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>76.97819666666668</v>
+      </c>
+      <c r="H26">
+        <v>230.93459</v>
+      </c>
+      <c r="I26">
+        <v>0.5964671862668268</v>
+      </c>
+      <c r="J26">
+        <v>0.5964671862668269</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1663096666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.498929</v>
+      </c>
+      <c r="O26">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="P26">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="Q26">
+        <v>12.80221822823445</v>
+      </c>
+      <c r="R26">
+        <v>115.21996405411</v>
+      </c>
+      <c r="S26">
+        <v>0.001736642144278803</v>
+      </c>
+      <c r="T26">
+        <v>0.001736642144278804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>76.97819666666668</v>
+      </c>
+      <c r="H27">
+        <v>230.93459</v>
+      </c>
+      <c r="I27">
+        <v>0.5964671862668268</v>
+      </c>
+      <c r="J27">
+        <v>0.5964671862668269</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>39.90467966666666</v>
+      </c>
+      <c r="N27">
+        <v>119.714039</v>
+      </c>
+      <c r="O27">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="P27">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="Q27">
+        <v>3071.790279301001</v>
+      </c>
+      <c r="R27">
+        <v>27646.11251370901</v>
+      </c>
+      <c r="S27">
+        <v>0.4166934481443978</v>
+      </c>
+      <c r="T27">
+        <v>0.4166934481443979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>76.97819666666668</v>
+      </c>
+      <c r="H28">
+        <v>230.93459</v>
+      </c>
+      <c r="I28">
+        <v>0.5964671862668268</v>
+      </c>
+      <c r="J28">
+        <v>0.5964671862668269</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.27049</v>
+      </c>
+      <c r="N28">
+        <v>0.8114699999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="P28">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="Q28">
+        <v>20.82183241636666</v>
+      </c>
+      <c r="R28">
+        <v>187.3964917473</v>
+      </c>
+      <c r="S28">
+        <v>0.002824516115154502</v>
+      </c>
+      <c r="T28">
+        <v>0.002824516115154502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>76.97819666666668</v>
+      </c>
+      <c r="H29">
+        <v>230.93459</v>
+      </c>
+      <c r="I29">
+        <v>0.5964671862668268</v>
+      </c>
+      <c r="J29">
+        <v>0.5964671862668269</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.4939066666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.48172</v>
+      </c>
+      <c r="O29">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="P29">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="Q29">
+        <v>38.02004452164445</v>
+      </c>
+      <c r="R29">
+        <v>342.1804006948</v>
+      </c>
+      <c r="S29">
+        <v>0.005157482122748505</v>
+      </c>
+      <c r="T29">
+        <v>0.005157482122748506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>76.97819666666668</v>
+      </c>
+      <c r="H30">
+        <v>230.93459</v>
+      </c>
+      <c r="I30">
+        <v>0.5964671862668268</v>
+      </c>
+      <c r="J30">
+        <v>0.5964671862668269</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.88291266666667</v>
+      </c>
+      <c r="N30">
+        <v>44.648738</v>
+      </c>
+      <c r="O30">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="P30">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="Q30">
+        <v>1145.659778227491</v>
+      </c>
+      <c r="R30">
+        <v>10310.93800404742</v>
+      </c>
+      <c r="S30">
+        <v>0.1554106498112206</v>
+      </c>
+      <c r="T30">
+        <v>0.1554106498112206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>76.97819666666668</v>
+      </c>
+      <c r="H31">
+        <v>230.93459</v>
+      </c>
+      <c r="I31">
+        <v>0.5964671862668268</v>
+      </c>
+      <c r="J31">
+        <v>0.5964671862668269</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.20728</v>
+      </c>
+      <c r="O31">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P31">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q31">
+        <v>107.9562757572445</v>
+      </c>
+      <c r="R31">
+        <v>971.6064818152</v>
+      </c>
+      <c r="S31">
+        <v>0.01464444792902662</v>
+      </c>
+      <c r="T31">
+        <v>0.01464444792902662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.08940266666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.268208</v>
+      </c>
+      <c r="I32">
+        <v>0.0006927384550502074</v>
+      </c>
+      <c r="J32">
+        <v>0.0006927384550502075</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.1663096666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.498929</v>
+      </c>
+      <c r="O32">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="P32">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="Q32">
+        <v>0.01486852769244444</v>
+      </c>
+      <c r="R32">
+        <v>0.133816749232</v>
+      </c>
+      <c r="S32">
+        <v>2.016940451548334E-06</v>
+      </c>
+      <c r="T32">
+        <v>2.016940451548334E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.08940266666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.268208</v>
+      </c>
+      <c r="I33">
+        <v>0.0006927384550502074</v>
+      </c>
+      <c r="J33">
+        <v>0.0006927384550502075</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>39.90467966666666</v>
+      </c>
+      <c r="N33">
+        <v>119.714039</v>
+      </c>
+      <c r="O33">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="P33">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="Q33">
+        <v>3.567584774679111</v>
+      </c>
+      <c r="R33">
+        <v>32.10826297211199</v>
+      </c>
+      <c r="S33">
+        <v>0.0004839487940715709</v>
+      </c>
+      <c r="T33">
+        <v>0.0004839487940715709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.08940266666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.268208</v>
+      </c>
+      <c r="I34">
+        <v>0.0006927384550502074</v>
+      </c>
+      <c r="J34">
+        <v>0.0006927384550502075</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.27049</v>
+      </c>
+      <c r="N34">
+        <v>0.8114699999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="P34">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="Q34">
+        <v>0.02418252730666666</v>
+      </c>
+      <c r="R34">
+        <v>0.21764274576</v>
+      </c>
+      <c r="S34">
+        <v>3.280399953135468E-06</v>
+      </c>
+      <c r="T34">
+        <v>3.280399953135469E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.08940266666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.268208</v>
+      </c>
+      <c r="I35">
+        <v>0.0006927384550502074</v>
+      </c>
+      <c r="J35">
+        <v>0.0006927384550502075</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.4939066666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.48172</v>
+      </c>
+      <c r="O35">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="P35">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="Q35">
+        <v>0.04415657308444445</v>
+      </c>
+      <c r="R35">
+        <v>0.39740915776</v>
+      </c>
+      <c r="S35">
+        <v>5.989912404105989E-06</v>
+      </c>
+      <c r="T35">
+        <v>5.98991240410599E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.08940266666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.268208</v>
+      </c>
+      <c r="I36">
+        <v>0.0006927384550502074</v>
+      </c>
+      <c r="J36">
+        <v>0.0006927384550502075</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>14.88291266666667</v>
+      </c>
+      <c r="N36">
+        <v>44.648738</v>
+      </c>
+      <c r="O36">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="P36">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="Q36">
+        <v>1.330572080167111</v>
+      </c>
+      <c r="R36">
+        <v>11.975148721504</v>
+      </c>
+      <c r="S36">
+        <v>0.000180494310378397</v>
+      </c>
+      <c r="T36">
+        <v>0.000180494310378397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.08940266666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.268208</v>
+      </c>
+      <c r="I37">
+        <v>0.0006927384550502074</v>
+      </c>
+      <c r="J37">
+        <v>0.0006927384550502075</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.20728</v>
+      </c>
+      <c r="O37">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P37">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q37">
+        <v>0.1253806838044444</v>
+      </c>
+      <c r="R37">
+        <v>1.12842615424</v>
+      </c>
+      <c r="S37">
+        <v>1.700809779144983E-05</v>
+      </c>
+      <c r="T37">
+        <v>1.700809779144983E-05</v>
       </c>
     </row>
   </sheetData>
